--- a/public/uploads/excel/teacher import.xlsx
+++ b/public/uploads/excel/teacher import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsh\Downloads\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\prim document\school import test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7E6145-4905-4460-AD65-949C10E967E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ACCA6D-4504-4B0E-892E-B8FFCC55535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17760" yWindow="2290" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Bil</t>
   </si>
@@ -33,106 +33,70 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>No. KP</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>AFRINA FARZANA BINTI KASMAN</t>
   </si>
   <si>
-    <t>041029011100</t>
-  </si>
-  <si>
     <t>aslindaze@gmail.com</t>
   </si>
   <si>
     <t>AHMAD SYAMIL BIN AHMAD SYAKIR</t>
   </si>
   <si>
-    <t>040615101809</t>
-  </si>
-  <si>
     <t>syamilrao@gmail.com</t>
   </si>
   <si>
     <t>AMIRA NAJWA BINTI ZULKIFLY</t>
   </si>
   <si>
-    <t>041010010490</t>
-  </si>
-  <si>
     <t>amira1004.an@gmail.com</t>
   </si>
   <si>
     <t>AWATIF NAJIHAH BINTI AZHAM RIDZUAN</t>
   </si>
   <si>
-    <t>040906060170</t>
-  </si>
-  <si>
     <t>awatifnjiah@gmail.com</t>
   </si>
   <si>
     <t>BALQIS NUR IMAN BINTI MOHAMAD NAZRI</t>
   </si>
   <si>
-    <t>040320010790</t>
-  </si>
-  <si>
     <t>balqisnazri2003@gmail.com</t>
   </si>
   <si>
     <t>FARAH FARZANA BINTI MOHD RULNIZAN</t>
   </si>
   <si>
-    <t>041101141154</t>
-  </si>
-  <si>
     <t>farahfarzana11104@gmail.com</t>
   </si>
   <si>
     <t>FARISSA FARRHANA BINTI MUHAMMAD</t>
   </si>
   <si>
-    <t>040917040108</t>
-  </si>
-  <si>
     <t>farissafarhana040917@gmail.com</t>
   </si>
   <si>
     <t>ILLYA MAISARA BINTI IZNI SYAHRIZAL</t>
   </si>
   <si>
-    <t>041119870048</t>
-  </si>
-  <si>
     <t>illya.izni@yahoo.com</t>
   </si>
   <si>
     <t>KHAIRUL BIN ABDULLAH</t>
   </si>
   <si>
-    <t>040225101299</t>
-  </si>
-  <si>
     <t>khairulabdullah373@gmail.com</t>
   </si>
   <si>
     <t>MUHAMMAD AIMAN HAKIMI BIN ANWAR</t>
   </si>
   <si>
-    <t>040416050607</t>
-  </si>
-  <si>
     <t>amnhk2004@gmail.com</t>
   </si>
   <si>
     <t>MUHAMMAD HAZIQ BIN NORFAUZI</t>
-  </si>
-  <si>
-    <t>041011040085</t>
   </si>
   <si>
     <t>pogbahaziq8@gmail.com</t>
@@ -522,220 +486,196 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
